--- a/data/cidades_regioes.xlsx
+++ b/data/cidades_regioes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sistemas_ia\SalesMasters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6669F76-3E23-46BE-96D8-6512AE6D56BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC91194-B29A-4A97-981D-148E3C1D1B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5148</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5190</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>5153</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>5137</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -422,7 +422,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>5154</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,15 +430,15 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>5152</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>5320</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>5150</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>5164</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,39 +462,39 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>5147</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>5257</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>5170</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>5200</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>5169</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="1">
-        <v>5197</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="1">
-        <v>5193</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>5205</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>5171</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>5167</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,31 +542,31 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>5168</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
-        <v>5165</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>5163</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>5162</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>5166</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>5161</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>5158</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>5160</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>5159</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>5155</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -622,151 +622,151 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>5156</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
-        <v>5597</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
-        <v>5187</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" s="1">
-        <v>5204</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1">
-        <v>5199</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1">
-        <v>5198</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
-        <v>5201</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>5196</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>5203</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
-        <v>5184</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
-        <v>5182</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>5192</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1">
-        <v>5202</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
-        <v>5185</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
-        <v>5186</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
-        <v>5183</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>5195</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>5191</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
-        <v>5189</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="1">
-        <v>5140</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="1">
-        <v>5145</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="1">
-        <v>5151</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -798,55 +798,55 @@
         <v>5</v>
       </c>
       <c r="B53" s="1">
-        <v>5144</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
-        <v>5141</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
-        <v>5143</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1">
-        <v>5146</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1">
-        <v>5139</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" s="1">
-        <v>5157</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
-        <v>5142</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="B60" s="1">
-        <v>5132</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,39 +862,39 @@
         <v>6</v>
       </c>
       <c r="B61" s="1">
-        <v>5133</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
-        <v>5138</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
-        <v>5136</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1">
-        <v>5135</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1">
-        <v>5173</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="1">
-        <v>5174</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="1">
-        <v>5134</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="1">
-        <v>5175</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="B69" s="1">
-        <v>5172</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="1">
-        <v>5177</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="1">
-        <v>5178</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,47 +950,47 @@
         <v>8</v>
       </c>
       <c r="B72" s="1">
-        <v>5176</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="1">
-        <v>1</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1">
-        <v>5180</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="1">
-        <v>5188</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76" s="1">
-        <v>5181</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="1">
-        <v>5179</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,31 +998,31 @@
         <v>9</v>
       </c>
       <c r="B78" s="1">
-        <v>5194</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="1">
-        <v>5323</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1">
-        <v>587</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" s="1">
-        <v>5208</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="1">
-        <v>5244</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,31 +1038,455 @@
         <v>10</v>
       </c>
       <c r="B83" s="1">
-        <v>5329</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" s="1">
-        <v>5252</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" s="1">
-        <v>5251</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86" s="1">
-        <v>5346</v>
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>11</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>12</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>13</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>13</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>14</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>14</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>14</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>14</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>14</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>15</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>17</v>
+      </c>
+      <c r="B102" s="1">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>17</v>
+      </c>
+      <c r="B104" s="1">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>17</v>
+      </c>
+      <c r="B105" s="1">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>17</v>
+      </c>
+      <c r="B106" s="1">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>17</v>
+      </c>
+      <c r="B107" s="1">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>17</v>
+      </c>
+      <c r="B108" s="1">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>17</v>
+      </c>
+      <c r="B109" s="1">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>18</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5466</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>18</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>18</v>
+      </c>
+      <c r="B112" s="1">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>18</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>19</v>
+      </c>
+      <c r="B115" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>20</v>
+      </c>
+      <c r="B116" s="1">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>21</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>21</v>
+      </c>
+      <c r="B118" s="1">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>22</v>
+      </c>
+      <c r="B119" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>23</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>23</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>24</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>25</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>25</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>26</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>27</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5051</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>28</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>29</v>
+      </c>
+      <c r="B129" s="1">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>29</v>
+      </c>
+      <c r="B130" s="1">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>29</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>29</v>
+      </c>
+      <c r="B132" s="1">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>29</v>
+      </c>
+      <c r="B133" s="1">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>29</v>
+      </c>
+      <c r="B134" s="1">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>29</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>29</v>
+      </c>
+      <c r="B136" s="1">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>29</v>
+      </c>
+      <c r="B137" s="1">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>29</v>
+      </c>
+      <c r="B138" s="1">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>30</v>
+      </c>
+      <c r="B139" s="1">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
